--- a/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
+++ b/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python code\multicampus\3. semiproject\Federal Funds Target Range Forcast\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitStudy\MLP_Finance_Fed\Fed1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CBD70F-996B-4C7B-8FA3-8A2B26D70D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52946ABE-785F-47DD-B1D1-3018FC24779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
   </bookViews>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://kr.investing.com/central-banks/fed-rate-monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pandas_datareader 모듈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,13 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발표일=&gt;DATE로 변경
-실제와 예측이 같이 있고 예측이 있는 최소 일자가 20080319
-실제는 있으나 예측이 없는 일자가 있음
-파일이 .xlsx라 openpyxl 모듈 설치 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변환=&gt;DATE로 변경
 휴일자의 경우 전영업일자 데이터 기준으로 생성
 날짜타입은 object형으로 변환</t>
@@ -724,6 +713,19 @@
   </si>
   <si>
     <t>BB_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.investing.com/economic-calendar/interest-rate-decision-168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표일=&gt;DATE로 변경
+실제와 예측이 같이 있고 예측이 있는 최소 일자가 20080319
+실제는 있으나 예측이 없는 일자가 있음
+파일이 .xlsx라 openpyxl 모듈 설치 필요
+실제,예측,이전 컬럼의 값에 100을 곱합
+20240731일 기준 20240801 예측치가 나와 있으나 일단 제외</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,9 +882,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -891,6 +890,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1221,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7A5CC-1392-4053-90B6-52C60D5BB7CE}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1244,47 +1246,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1293,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>8</v>
@@ -1310,13 +1312,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1331,23 +1333,23 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>4</v>
@@ -1362,32 +1364,32 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>5</v>
@@ -1402,79 +1404,79 @@
         <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="99">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" s="1">
-        <v>20080319</v>
+        <v>19820928</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="3" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1">
         <v>19470401</v>
@@ -1486,39 +1488,39 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1">
         <v>19470621</v>
@@ -1530,37 +1532,37 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="49.5">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1">
         <v>19590101</v>
@@ -1572,161 +1574,161 @@
         <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1">
         <v>19620201</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="99">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1">
         <v>19900302</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="66">
       <c r="A12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1">
         <v>19940103</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I13" s="1">
         <v>19990101</v>
@@ -1738,163 +1740,163 @@
         <v>6</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="I14" s="16">
         <v>20180101</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
-        <v>159</v>
+      <c r="K14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+        <v>164</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="33">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+        <v>163</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1909,6 +1911,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="M14:M18"/>
@@ -1919,11 +1926,6 @@
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J14:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1960,68 +1962,68 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5">
-      <c r="A3" s="12" t="s">
-        <v>39</v>
+      <c r="A3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2029,9 +2031,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2039,9 +2041,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2049,9 +2051,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2059,29 +2061,29 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="49.5">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2089,9 +2091,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2099,9 +2101,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2109,27 +2111,27 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="99">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2137,9 +2139,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2147,11 +2149,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>57</v>
+      <c r="A16" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2159,9 +2161,9 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2169,9 +2171,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2179,69 +2181,69 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="33">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="82.5">
       <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2275,26 +2277,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6">
         <v>2.48328727449099E-2</v>
@@ -2304,12 +2306,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>-0.57762883879279303</v>
@@ -2319,12 +2321,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7">
         <v>0.79551104646730497</v>
@@ -2334,12 +2336,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6">
         <v>0.61661861986862598</v>
@@ -2349,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
+++ b/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitStudy\MLP_Finance_Fed\Fed1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52946ABE-785F-47DD-B1D1-3018FC24779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E56A1-816D-44C7-A769-1D4736B6BB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
   <si>
     <t>연준 기준 금리 상한</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,6 +726,10 @@
 파일이 .xlsx라 openpyxl 모듈 설치 필요
 실제,예측,이전 컬럼의 값에 100을 곱합
 20240731일 기준 20240801 예측치가 나와 있으나 일단 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beige book 긍정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,6 +886,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -890,9 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1223,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7A5CC-1392-4053-90B6-52C60D5BB7CE}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1246,36 +1250,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1763,29 +1767,29 @@
       <c r="E14" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="12" t="s">
         <v>155</v>
       </c>
       <c r="I14" s="16">
         <v>20180101</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1802,16 +1806,16 @@
       <c r="D15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
@@ -1826,23 +1830,23 @@
       <c r="D16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>151</v>
@@ -1850,16 +1854,16 @@
       <c r="D17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="33">
       <c r="A18" s="1" t="s">
@@ -1874,16 +1878,16 @@
       <c r="D18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
@@ -1911,11 +1915,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="M14:M18"/>
@@ -1926,6 +1925,11 @@
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J14:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1989,7 +1993,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2009,7 +2013,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2021,7 +2025,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2035,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -2041,7 +2045,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -2051,7 +2055,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2061,7 +2065,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="49.5">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
@@ -2079,7 +2083,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2091,7 +2095,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2101,7 +2105,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2111,7 +2115,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="99">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
@@ -2129,7 +2133,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2139,7 +2143,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2149,7 +2153,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2161,7 +2165,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
@@ -2171,7 +2175,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
@@ -2181,7 +2185,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="33">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="8" t="s">
         <v>55</v>
       </c>

--- a/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
+++ b/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitStudy\MLP_Finance_Fed\Fed1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E56A1-816D-44C7-A769-1D4736B6BB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61D98EF-D47C-4CCE-BF9C-EDC6F32AD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
-    <sheet name="경제지표요인" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="경제지표요인" sheetId="2" r:id="rId2"/>
     <sheet name="상관관계 분석" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -219,9 +219,6 @@
     <t>부동산 가격: S&amp;P CoreLogic Case-Shiller Home Price Indices</t>
   </si>
   <si>
-    <t>소비자물가: PCE, CPI</t>
-  </si>
-  <si>
     <t>임금: 시간당 임금 상승률, ECI(Employment Cost Index)</t>
   </si>
   <si>
@@ -730,6 +727,10 @@
   </si>
   <si>
     <t>Beige book 긍정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자물가: PCE, CPI(Core CPI로 진행)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7A5CC-1392-4053-90B6-52C60D5BB7CE}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1251,19 +1252,19 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -1284,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
@@ -1305,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>8</v>
@@ -1316,13 +1317,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1337,13 +1338,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -1377,13 +1378,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -1417,28 +1418,28 @@
     </row>
     <row r="6" spans="1:14" ht="99">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1">
         <v>19820928</v>
@@ -1447,34 +1448,34 @@
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -1495,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>30</v>
@@ -1503,22 +1504,22 @@
     </row>
     <row r="8" spans="1:14" ht="33">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
@@ -1545,13 +1546,13 @@
     </row>
     <row r="9" spans="1:14" ht="49.5">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>28</v>
@@ -1560,7 +1561,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -1587,16 +1588,16 @@
     </row>
     <row r="10" spans="1:14" ht="33">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1627,28 +1628,28 @@
     </row>
     <row r="11" spans="1:14" ht="99">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
         <v>19900302</v>
@@ -1664,33 +1665,33 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="66">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="1">
         <v>19940103</v>
@@ -1706,33 +1707,33 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5">
       <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="1">
         <v>19990101</v>
@@ -1748,33 +1749,33 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="16">
         <v>20180101</v>
@@ -1783,28 +1784,28 @@
         <v>11</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1819,16 +1820,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1843,16 +1844,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1867,16 +1868,16 @@
     </row>
     <row r="18" spans="1:14" ht="33">
       <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1891,16 +1892,16 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1950,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD23BBB-5F85-4617-A31A-6E7DD6FF7B40}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1966,30 +1967,30 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5">
@@ -1997,19 +1998,19 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2018,7 +2019,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2070,16 +2071,16 @@
         <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2117,25 +2118,25 @@
     <row r="13" spans="1:8" ht="99">
       <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2145,7 +2146,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2154,10 +2155,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2167,7 +2168,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2177,7 +2178,7 @@
     <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2187,62 +2188,62 @@
     <row r="19" spans="1:6" ht="33">
       <c r="A19" s="14"/>
       <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="82.5">
       <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2281,26 +2282,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6">
         <v>2.48328727449099E-2</v>
@@ -2310,12 +2311,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="7">
         <v>-0.57762883879279303</v>
@@ -2325,12 +2326,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="7">
         <v>0.79551104646730497</v>
@@ -2340,12 +2341,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6">
         <v>0.61661861986862598</v>
@@ -2355,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
+++ b/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitStudy\MLP_Finance_Fed\Fed1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61D98EF-D47C-4CCE-BF9C-EDC6F32AD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B0BCF8-85EC-4B3C-AAB4-E85A78DBDB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
-    <sheet name="경제지표요인" sheetId="2" r:id="rId2"/>
+    <sheet name="경제지표요인" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="상관관계 분석" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A191RL1Q225SBEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UNRATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +727,10 @@
   </si>
   <si>
     <t>소비자물가: PCE, CPI(Core CPI로 진행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDPGR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,9 +887,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -898,6 +895,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7A5CC-1392-4053-90B6-52C60D5BB7CE}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1251,36 +1251,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="E1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>8</v>
@@ -1317,13 +1317,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -1424,13 +1424,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>107</v>
@@ -1448,28 +1448,28 @@
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -1496,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>30</v>
@@ -1504,13 +1504,13 @@
     </row>
     <row r="8" spans="1:14" ht="33">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>83</v>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="9" spans="1:14" ht="49.5">
       <c r="A9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>28</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="10" spans="1:14" ht="33">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1628,22 +1628,22 @@
     </row>
     <row r="11" spans="1:14" ht="99">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>95</v>
@@ -1665,18 +1665,18 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="66">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>97</v>
@@ -1685,7 +1685,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>95</v>
@@ -1712,22 +1712,22 @@
     </row>
     <row r="13" spans="1:14" ht="49.5">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>95</v>
@@ -1754,154 +1754,154 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="I14" s="16">
         <v>20180101</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="K14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+        <v>159</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="33">
       <c r="A18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+        <v>161</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1916,6 +1916,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="M14:M18"/>
@@ -1926,11 +1931,6 @@
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J14:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1951,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD23BBB-5F85-4617-A31A-6E7DD6FF7B40}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="49.5">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2096,7 +2096,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2116,9 +2116,9 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="99">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>81</v>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2166,7 +2166,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="33">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="8" t="s">
         <v>54</v>
       </c>

--- a/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
+++ b/Fed1/doc/금리 예측 통합 데이터 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitStudy\MLP_Finance_Fed\Fed1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B0BCF8-85EC-4B3C-AAB4-E85A78DBDB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEFB5A6-04CC-4DD6-A313-9963985158F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC71F577-D77B-4174-9A13-27B93AA63A31}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="169">
   <si>
     <t>연준 기준 금리 상한</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,6 @@
   </si>
   <si>
     <t>https://fred.stlouisfed.org/series/A191RL1Q225SBEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실질 국내총생산
-(Real Gross Domestic Product)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실질 국내총생산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개인 소비 지출: 체인형 가격 지수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,10 +608,6 @@
   </si>
   <si>
     <t>일자(매월초 기준)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실질 국내총생산 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -731,6 +718,10 @@
   </si>
   <si>
     <t>GDPGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실질 국내총생산 성장률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,6 +878,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -895,9 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1229,7 +1220,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1251,47 +1242,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="A1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1300,13 +1291,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>8</v>
@@ -1317,13 +1308,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1338,13 +1329,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -1354,7 +1345,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>4</v>
@@ -1369,22 +1360,22 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -1394,7 +1385,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>5</v>
@@ -1409,37 +1400,37 @@
         <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="99">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="1">
         <v>19820928</v>
@@ -1448,40 +1439,40 @@
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1">
         <v>19470401</v>
@@ -1493,39 +1484,39 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1">
         <v>19470621</v>
@@ -1537,37 +1528,37 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="49.5">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1">
         <v>19590101</v>
@@ -1579,161 +1570,161 @@
         <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33">
       <c r="A10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1">
         <v>19620201</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="99">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="1">
         <v>19900302</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="66">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1">
         <v>19940103</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5">
       <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="1">
         <v>19990101</v>
@@ -1745,163 +1736,163 @@
         <v>6</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>153</v>
+      <c r="G14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="I14" s="16">
         <v>20180101</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
-        <v>155</v>
+      <c r="K14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="33">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1916,11 +1907,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="M14:M18"/>
@@ -1931,6 +1917,11 @@
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J14:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1967,68 +1958,68 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5">
-      <c r="A3" s="11" t="s">
-        <v>38</v>
+      <c r="A3" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2036,9 +2027,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2046,9 +2037,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2056,9 +2047,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2066,29 +2057,29 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="49.5">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2096,9 +2087,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2106,9 +2097,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2116,27 +2107,27 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="99">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2144,9 +2135,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2154,11 +2145,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
-        <v>55</v>
+      <c r="A16" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2166,9 +2157,9 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2176,9 +2167,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2186,69 +2177,69 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="33">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="82.5">
       <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2282,26 +2273,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6">
         <v>2.48328727449099E-2</v>
@@ -2311,12 +2302,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7">
         <v>-0.57762883879279303</v>
@@ -2326,12 +2317,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7">
         <v>0.79551104646730497</v>
@@ -2341,12 +2332,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6">
         <v>0.61661861986862598</v>
@@ -2356,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
